--- a/gantt 5w2h tabela backlog.xlsx
+++ b/gantt 5w2h tabela backlog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8BE7A-D96E-4DDB-B502-72017DE6C875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C84BF37-3A9E-4448-9C0D-06310F64935A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="16215" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="término_da_tarefa" localSheetId="0">CronogramaDeProjeto!$F1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">CronogramaDeProjeto!$4:$6</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -549,16 +538,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-416]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="168" formatCode="d"/>
     <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,7 +1418,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1451,9 +1440,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1764,6 +1753,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1773,6 +1769,9 @@
     <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="46" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,16 +1796,6 @@
     <xf numFmtId="0" fontId="40" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Ênfase1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2517,25 +2506,25 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
-      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
@@ -2562,124 +2551,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110">
+      <c r="D3" s="98"/>
+      <c r="E3" s="103">
         <v>45904</v>
       </c>
-      <c r="F3" s="110"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+      <c r="F3" s="103"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="97">
+      <c r="I4" s="100">
         <f>I5</f>
         <v>45901</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="97">
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="100">
         <f>P5</f>
         <v>45908</v>
       </c>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="97">
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="100">
         <f>W5</f>
         <v>45915</v>
       </c>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="97">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="100">
         <f>AD5</f>
         <v>45922</v>
       </c>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="97">
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="100">
         <f>AK5</f>
         <v>45929</v>
       </c>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="97">
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="100">
         <f>AR5</f>
         <v>45936</v>
       </c>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="97">
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="100">
         <f>AY5</f>
         <v>45943</v>
       </c>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="97">
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="100">
         <f>BF5</f>
         <v>45950</v>
       </c>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="99"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="102"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
       <c r="I5" s="60">
         <f>Início_do_projeto-WEEKDAY(Início_do_projeto,1)+2+7*(Semana_de_exibição-1)</f>
         <v>45901</v>
@@ -2905,7 +2894,7 @@
         <v>45956</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>12</v>
       </c>
@@ -3153,14 +3142,14 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="46"/>
       <c r="E7"/>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H33" ca="1" si="6">IF(OR(ISBLANK(Início_do_projeto),ISBLANK(término_da_tarefa)),"",término_da_tarefa-Início_do_projeto+1)</f>
+        <f t="shared" ref="H7:H33" si="6">IF(OR(ISBLANK(Início_do_projeto),ISBLANK(término_da_tarefa)),"",término_da_tarefa-Início_do_projeto+1)</f>
         <v/>
       </c>
       <c r="I7" s="30"/>
@@ -3220,7 +3209,7 @@
       <c r="BK7" s="30"/>
       <c r="BL7" s="30"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3222,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I8" s="30"/>
@@ -3293,7 +3282,7 @@
       <c r="BK8" s="30"/>
       <c r="BL8" s="30"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>22</v>
       </c>
@@ -3314,7 +3303,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="I9" s="30"/>
@@ -3374,7 +3363,7 @@
       <c r="BK9" s="30"/>
       <c r="BL9" s="30"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
         <v>25</v>
       </c>
@@ -3395,7 +3384,7 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="I10" s="30"/>
@@ -3455,7 +3444,7 @@
       <c r="BK10" s="30"/>
       <c r="BL10" s="30"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42"/>
       <c r="B11" s="78" t="s">
         <v>28</v>
@@ -3474,7 +3463,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="I11" s="30"/>
@@ -3534,7 +3523,7 @@
       <c r="BK11" s="30"/>
       <c r="BL11" s="30"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42"/>
       <c r="B12" s="78" t="s">
         <v>30</v>
@@ -3553,7 +3542,7 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="I12" s="30"/>
@@ -3613,7 +3602,7 @@
       <c r="BK12" s="30"/>
       <c r="BL12" s="30"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42"/>
       <c r="B13" s="78" t="s">
         <v>32</v>
@@ -3630,7 +3619,7 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="I13" s="30"/>
@@ -3690,7 +3679,7 @@
       <c r="BK13" s="30"/>
       <c r="BL13" s="30"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
         <v>33</v>
       </c>
@@ -3703,7 +3692,7 @@
       <c r="F14" s="70"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I14" s="30"/>
@@ -3763,7 +3752,7 @@
       <c r="BK14" s="30"/>
       <c r="BL14" s="30"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="80" t="s">
         <v>35</v>
@@ -3782,7 +3771,7 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I15" s="30"/>
@@ -3842,7 +3831,7 @@
       <c r="BK15" s="30"/>
       <c r="BL15" s="30"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42"/>
       <c r="B16" s="80" t="s">
         <v>37</v>
@@ -3861,7 +3850,7 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I16" s="30"/>
@@ -3921,7 +3910,7 @@
       <c r="BK16" s="30"/>
       <c r="BL16" s="30"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42"/>
       <c r="B17" s="80" t="s">
         <v>39</v>
@@ -3938,7 +3927,7 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I17" s="30"/>
@@ -3998,7 +3987,7 @@
       <c r="BK17" s="30"/>
       <c r="BL17" s="30"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
       <c r="B18" s="80" t="s">
         <v>40</v>
@@ -4015,7 +4004,7 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I18" s="30"/>
@@ -4075,7 +4064,7 @@
       <c r="BK18" s="30"/>
       <c r="BL18" s="30"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42"/>
       <c r="B19" s="80" t="s">
         <v>41</v>
@@ -4092,7 +4081,7 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I19" s="30"/>
@@ -4152,7 +4141,7 @@
       <c r="BK19" s="30"/>
       <c r="BL19" s="30"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
         <v>42</v>
       </c>
@@ -4165,7 +4154,7 @@
       <c r="F20" s="72"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I20" s="30"/>
@@ -4225,7 +4214,7 @@
       <c r="BK20" s="30"/>
       <c r="BL20" s="30"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="83" t="s">
         <v>44</v>
@@ -4242,7 +4231,7 @@
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="I21" s="30"/>
@@ -4302,7 +4291,7 @@
       <c r="BK21" s="30"/>
       <c r="BL21" s="30"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="83" t="s">
         <v>45</v>
@@ -4319,7 +4308,7 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="I22" s="30"/>
@@ -4379,7 +4368,7 @@
       <c r="BK22" s="30"/>
       <c r="BL22" s="30"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="83" t="s">
         <v>39</v>
@@ -4396,7 +4385,7 @@
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="I23" s="30"/>
@@ -4456,7 +4445,7 @@
       <c r="BK23" s="30"/>
       <c r="BL23" s="30"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="83" t="s">
         <v>40</v>
@@ -4473,7 +4462,7 @@
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="I24" s="30"/>
@@ -4533,7 +4522,7 @@
       <c r="BK24" s="30"/>
       <c r="BL24" s="30"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
       <c r="B25" s="83" t="s">
         <v>41</v>
@@ -4550,7 +4539,7 @@
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="I25" s="30"/>
@@ -4610,7 +4599,7 @@
       <c r="BK25" s="30"/>
       <c r="BL25" s="30"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="42" t="s">
         <v>42</v>
       </c>
@@ -4623,7 +4612,7 @@
       <c r="F26" s="74"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I26" s="30"/>
@@ -4683,7 +4672,7 @@
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
         <v>48</v>
@@ -4700,7 +4689,7 @@
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="I27" s="30"/>
@@ -4760,7 +4749,7 @@
       <c r="BK27" s="30"/>
       <c r="BL27" s="30"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="56" t="s">
         <v>50</v>
@@ -4771,7 +4760,7 @@
       <c r="F28" s="66"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I28" s="30"/>
@@ -4831,7 +4820,7 @@
       <c r="BK28" s="30"/>
       <c r="BL28" s="30"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="56" t="s">
         <v>51</v>
@@ -4842,7 +4831,7 @@
       <c r="F29" s="66"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I29" s="30"/>
@@ -4902,7 +4891,7 @@
       <c r="BK29" s="30"/>
       <c r="BL29" s="30"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="56" t="s">
         <v>52</v>
@@ -4913,7 +4902,7 @@
       <c r="F30" s="66"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I30" s="30"/>
@@ -4973,7 +4962,7 @@
       <c r="BK30" s="30"/>
       <c r="BL30" s="30"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
       <c r="B31" s="56" t="s">
         <v>53</v>
@@ -4984,7 +4973,7 @@
       <c r="F31" s="66"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I31" s="30"/>
@@ -5044,7 +5033,7 @@
       <c r="BK31" s="30"/>
       <c r="BL31" s="30"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42" t="s">
         <v>54</v>
       </c>
@@ -5055,7 +5044,7 @@
       <c r="F32" s="75"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I32" s="30"/>
@@ -5115,7 +5104,7 @@
       <c r="BK32" s="30"/>
       <c r="BL32" s="30"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
         <v>55</v>
       </c>
@@ -5128,7 +5117,7 @@
       <c r="F33" s="76"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I33" s="32"/>
@@ -5188,23 +5177,18 @@
       <c r="BK33" s="32"/>
       <c r="BL33" s="32"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1">
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="11"/>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5212,6 +5196,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -5288,86 +5277,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="34" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.75">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="41"/>
     </row>
-    <row r="4" spans="1:2" s="37" customFormat="1" ht="26.25">
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="34" customFormat="1" ht="222.75" customHeight="1">
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="37" customFormat="1" ht="26.25">
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1">
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="37" customFormat="1" ht="26.25">
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1">
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="37" customFormat="1" ht="26.25">
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90">
+    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>69</v>
       </c>
@@ -5397,53 +5386,53 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="93" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="93" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" style="93" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="93" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="93" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" style="93" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106"/>
       <c r="I1" s="88" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104">
+      <c r="H2" s="107"/>
+      <c r="I2" s="108">
         <f ca="1">TODAY()</f>
-        <v>45936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="23.25">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
         <v>74</v>
       </c>
@@ -5468,9 +5457,9 @@
       <c r="H3" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="105"/>
-    </row>
-    <row r="4" spans="1:9" ht="23.25">
+      <c r="I3" s="109"/>
+    </row>
+    <row r="4" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>82</v>
       </c>
@@ -5499,7 +5488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
         <v>91</v>
       </c>
@@ -5529,7 +5518,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="90" t="s">
         <v>95</v>
       </c>
@@ -5559,7 +5548,7 @@
         <v>Concluído</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="90" t="s">
         <v>28</v>
       </c>
@@ -5589,7 +5578,7 @@
         <v>Atrasado</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>103</v>
       </c>
@@ -5619,7 +5608,7 @@
         <v>Atrasado</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="90" t="s">
         <v>106</v>
       </c>
@@ -5649,7 +5638,7 @@
         <v>Atrasado</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
         <v>110</v>
       </c>
@@ -5711,60 +5700,60 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="132.140625" style="94" customWidth="1"/>
+    <col min="1" max="3" width="132.109375" style="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="107" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="107" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="107" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-    </row>
-    <row r="9" spans="1:3" ht="39.75" customHeight="1">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+    </row>
+    <row r="9" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
         <v>116</v>
       </c>
@@ -5775,7 +5764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="67.5">
+    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A10" s="95" t="s">
         <v>119</v>
       </c>
@@ -5786,7 +5775,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45">
+    <row r="11" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
         <v>122</v>
       </c>
@@ -5797,7 +5786,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
         <v>125</v>
       </c>
@@ -5808,31 +5797,31 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="106" t="s">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="106" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-    </row>
-    <row r="17" spans="1:3" ht="40.5" customHeight="1">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+    </row>
+    <row r="17" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="95" t="s">
         <v>116</v>
       </c>
@@ -5843,7 +5832,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A18" s="95" t="s">
         <v>130</v>
       </c>
@@ -5854,12 +5843,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="95" t="s">
         <v>133</v>
       </c>
@@ -5870,7 +5859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="95" t="s">
         <v>136</v>
       </c>
@@ -5881,31 +5870,31 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="106" t="s">
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="106" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-    </row>
-    <row r="26" spans="1:3" ht="40.5" customHeight="1">
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+    </row>
+    <row r="26" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="95" t="s">
         <v>116</v>
       </c>
@@ -5916,7 +5905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45">
+    <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
         <v>141</v>
       </c>
@@ -5927,7 +5916,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45">
+    <row r="28" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A28" s="95" t="s">
         <v>144</v>
       </c>
@@ -5938,7 +5927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="95" t="s">
         <v>147</v>
       </c>
@@ -5949,7 +5938,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45">
+    <row r="30" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="95" t="s">
         <v>150</v>
       </c>
@@ -5978,6 +5967,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100662B7893C5F07942BCF73DDC6B37CDD7" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97f602836fcf1a1cdc9f602b7af7ffc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8b4ed022-6705-4cac-96bf-fa54c8b5900a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6609e7cb5beb52825fa50237b7a43221" ns3:_="">
     <xsd:import namespace="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
@@ -6153,15 +6151,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6171,13 +6160,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C49D771D-8D94-44AD-B102-DE7F98B4ACA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033C67AE-15B3-49D8-9903-CFFB0C86690C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033C67AE-15B3-49D8-9903-CFFB0C86690C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C49D771D-8D94-44AD-B102-DE7F98B4ACA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264F2DF9-C677-4D22-89CA-83F2869B93E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264F2DF9-C677-4D22-89CA-83F2869B93E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>